--- a/biology/Médecine/Otorhinolaryngologie/Otorhinolaryngologie.xlsx
+++ b/biology/Médecine/Otorhinolaryngologie/Otorhinolaryngologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'otorhinolaryngologie (littéralement « étude de l'oreille, du nez et du larynx ») représente une branche de la médecine spécialisée dans le diagnostic et le traitement des troubles du nez, de la gorge, de l'oreille, et de la région tête et cou. Le praticien est appelé otorhinolaryngologiste (ORL).
 </t>
@@ -511,7 +523,9 @@
           <t>Surspécialisations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Chirurgie des cancers de la tête et du cou,
 Chirurgie plastique et reconstructrice faciale,
@@ -526,7 +540,7 @@
 Chirurgie de la thyroïde et des parathyroïdes,
 Chirurgie maxillofaciale,
 Phoniatrie, audiophonologie,
-Vestibulologie[1].</t>
+Vestibulologie.</t>
         </is>
       </c>
     </row>
@@ -554,7 +568,9 @@
           <t>Maladies du nez, de la gorge, de l'oreille, de la tête et du cou</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Pharyngite - inflammation du pharynx qui donne des symptômes plus ou moins semblables à la tonsillite,
 Angine - Pharyngite + tonsillite - inflammation douloureuse des amygdales, odynophagie (douleur à la déglutition), fièvre,
